--- a/tool-packages/excel2all/__test__/test-excel-files/MergeTableFolder2/MergeTableSetting.xlsx
+++ b/tool-packages/excel2all/__test__/test-excel-files/MergeTableFolder2/MergeTableSetting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="测试数据" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
   <si>
     <t>MergeTableSetting</t>
   </si>
@@ -25,6 +25,9 @@
     <t>数字</t>
   </si>
   <si>
+    <t>布尔值</t>
+  </si>
+  <si>
     <t>数字数组</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>boolean</t>
+  </si>
+  <si>
     <t>[int]</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
   </si>
   <si>
     <t>field_int</t>
+  </si>
+  <si>
+    <t>field_bool</t>
   </si>
   <si>
     <t>field_int_array</t>
@@ -187,8 +196,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -200,6 +209,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -208,22 +262,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,30 +307,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,9 +323,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,38 +339,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,21 +359,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -360,25 +369,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,43 +513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,61 +531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,43 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,15 +560,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -593,6 +593,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -613,6 +622,17 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,17 +660,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -659,10 +668,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,16 +680,16 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,119 +698,119 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -811,13 +820,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1148,10 +1160,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ1171"/>
+  <dimension ref="A1:AR1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -1159,523 +1171,590 @@
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="29.625" customWidth="1"/>
     <col min="3" max="3" width="43.875" customWidth="1"/>
-    <col min="4" max="5" width="25.75" customWidth="1"/>
-    <col min="6" max="15" width="14.875" customWidth="1"/>
-    <col min="16" max="17" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="25.75" customWidth="1"/>
+    <col min="7" max="16" width="14.875" customWidth="1"/>
+    <col min="17" max="18" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:43">
+    <row r="1" s="1" customFormat="1" spans="1:44">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="AQ1" s="3"/>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="N1" s="3"/>
+      <c r="AR1" s="5"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="K3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="D5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="2">
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="3">
         <v>5</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="J5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="4" t="s">
+      <c r="L5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="3">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="3">
+        <v>8</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3">
+        <v>60000</v>
+      </c>
+      <c r="D7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="2">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="H7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="3">
+        <v>60000</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="2">
-        <v>8</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="4" t="s">
+      <c r="L8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="2">
-        <v>60000</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="2">
-        <v>60000</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="F10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="2">
-        <v>6</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="2">
+        <v>54</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3">
         <v>300</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="D11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="3">
         <v>300</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="13" spans="6:7">
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="16" spans="6:7">
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="22" spans="6:7">
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="6:7">
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="6:7">
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="6:7">
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="28" spans="6:7">
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="6:7">
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="4:8">
+      <c r="D13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="4:8">
+      <c r="D16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="4:8">
+      <c r="D22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="4:8">
+      <c r="D23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="4:8">
+      <c r="D24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="4:8">
+      <c r="D25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="4:8">
+      <c r="D28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="7:8">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="6:7">
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="6:7">
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="36" spans="6:7">
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="6:7">
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="40" spans="6:7">
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="6:7">
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="6:7">
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="6:7">
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="6:7">
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="6:7">
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="7:8">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="36" spans="7:8">
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="7:8">
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="40" spans="7:8">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="7:8">
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="7:8">
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="7:8">
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="7:8">
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="7:8">
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
     </row>
     <row r="1171" spans="1:1">
-      <c r="A1171" s="3"/>
+      <c r="A1171" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I5:I11">
+    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J5:J11">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K11">
     <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K11">
+  <conditionalFormatting sqref="L5:L11">
     <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M3 A4:I4 L4:M4 M5:M11 A5:G5 A11 A6:A8 B6:G11">
-    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="notEqual">
+  <conditionalFormatting sqref="M5:M11">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H6:H11">
-    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5 I6:I11">
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="notEqual">
-      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5 L6:L11">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
+  <conditionalFormatting sqref="A1:C5 B6:C11 A6:A8 A11 D1:N3 D5:H11 D4:J4 M4:N4 N5:N11">
+    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tool-packages/excel2all/__test__/test-excel-files/MergeTableFolder2/MergeTableSetting.xlsx
+++ b/tool-packages/excel2all/__test__/test-excel-files/MergeTableFolder2/MergeTableSetting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
   <si>
     <t>MergeTableSetting</t>
   </si>
@@ -55,6 +55,9 @@
     <t>json字段</t>
   </si>
   <si>
+    <t>新增字段</t>
+  </si>
+  <si>
     <t>TYPE</t>
   </si>
   <si>
@@ -130,6 +133,9 @@
     <t>obj:obj_field_json</t>
   </si>
   <si>
+    <t>field_ext</t>
+  </si>
+  <si>
     <t>SERVER</t>
   </si>
   <si>
@@ -146,6 +152,9 @@
   </si>
   <si>
     <t>{"公众号":"玩转游戏开发"}</t>
+  </si>
+  <si>
+    <t>ext</t>
   </si>
   <si>
     <t>2</t>
@@ -196,8 +205,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -210,23 +219,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,6 +277,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -246,30 +300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -278,7 +308,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,13 +322,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -307,6 +330,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -316,6 +347,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -329,36 +368,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -369,187 +378,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,41 +572,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,13 +605,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,7 +624,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,168 +658,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1163,7 +1166,7 @@
   <dimension ref="A1:AR1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -1173,7 +1176,9 @@
     <col min="3" max="3" width="43.875" customWidth="1"/>
     <col min="4" max="4" width="10.375" style="2" customWidth="1"/>
     <col min="5" max="6" width="25.75" customWidth="1"/>
-    <col min="7" max="16" width="14.875" customWidth="1"/>
+    <col min="7" max="12" width="14.875" customWidth="1"/>
+    <col min="13" max="13" width="29.375" customWidth="1"/>
+    <col min="14" max="16" width="14.875" customWidth="1"/>
     <col min="17" max="18" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1184,548 +1189,529 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="AR1" s="5"/>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR1" s="3"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="5"/>
+      <c r="M3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="b">
+      <c r="D5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="3">
+      <c r="G5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="2">
         <v>5</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="L5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2">
+        <v>60000</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="6" t="s">
+      <c r="G7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="3">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="I7" s="2">
+        <v>60000</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="3">
-        <v>8</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="K7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="6" t="s">
+      <c r="N7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="3">
-        <v>60000</v>
-      </c>
-      <c r="D7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="3">
-        <v>60000</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="b">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="3" t="s">
+      <c r="G8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="K8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="b">
+      <c r="D9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="E9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="3">
+      <c r="G9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="2">
         <v>6</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="3"/>
+      <c r="K9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="3">
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2">
         <v>0.5</v>
       </c>
-      <c r="D10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" s="3"/>
+      <c r="K10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="3">
+        <v>57</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="2">
+        <v>500</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="2">
         <v>300</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="3">
-        <v>300</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="4:4">
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="4:8">
-      <c r="D13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="4:4">
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="4:8">
-      <c r="D16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="4:8">
-      <c r="D22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="4:8">
-      <c r="D23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="4:8">
-      <c r="D24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="4:8">
-      <c r="D25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="4:4">
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="4:8">
-      <c r="D28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="K11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="7:8">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="16" spans="7:8">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="22" spans="7:8">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="7:8">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="7:8">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="7:8">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="28" spans="7:8">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="7:8">
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="7:8">
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="7:8">
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="36" spans="7:8">
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="7:8">
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="40" spans="7:8">
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="7:8">
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="7:8">
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="7:8">
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
     </row>
     <row r="44" spans="7:8">
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="7:8">
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
     </row>
     <row r="1171" spans="1:1">
-      <c r="A1171" s="5"/>
+      <c r="A1171" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I5:I11">
